--- a/词汇/数据库导入/004. -struct-建造.xlsx
+++ b/词汇/数据库导入/004. -struct-建造.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>Word</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -171,6 +177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -209,6 +221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -247,6 +265,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -285,6 +309,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -341,6 +371,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -379,6 +415,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">] n. </t>
     </r>
     <r>
@@ -417,6 +459,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -455,6 +503,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -493,6 +547,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -531,6 +591,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -569,6 +635,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -607,6 +679,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -645,6 +723,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -683,6 +767,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -721,6 +811,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -759,6 +855,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -834,6 +936,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -872,6 +980,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -910,6 +1024,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -948,6 +1068,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -986,6 +1112,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1037,6 +1169,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -1075,6 +1213,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -1113,6 +1257,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n.</t>
     </r>
     <r>
@@ -1169,6 +1319,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1207,6 +1363,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1245,6 +1407,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -1283,6 +1451,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -1339,6 +1513,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1374,6 +1554,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1412,6 +1598,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1453,6 +1645,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1535,6 +1733,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -1573,6 +1777,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1611,6 +1821,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1667,6 +1883,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1723,6 +1945,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -1761,6 +1989,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -1799,6 +2033,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1873,6 +2113,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1911,6 +2157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1946,6 +2198,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1984,6 +2242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2040,6 +2304,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2078,6 +2348,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2116,6 +2392,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2157,6 +2439,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -2195,6 +2483,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2233,6 +2527,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2271,6 +2571,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2309,6 +2615,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2347,6 +2659,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -2403,6 +2721,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2440,7 +2764,16 @@
     <t>destruct [dɪ'strʌkt]</t>
   </si>
   <si>
-    <r>
+    <t>destruct</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vi. </t>
     </r>
     <r>
@@ -2497,6 +2830,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2535,6 +2874,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2591,6 +2936,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2629,6 +2980,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -2667,6 +3024,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2705,6 +3068,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2725,6 +3094,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2763,6 +3138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2801,6 +3182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vi. </t>
     </r>
     <r>
@@ -2857,6 +3244,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2895,6 +3288,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2933,6 +3332,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2974,6 +3379,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -3012,6 +3423,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3050,6 +3467,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -3088,6 +3511,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3126,6 +3555,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3182,6 +3617,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3238,6 +3679,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -3277,10 +3724,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3305,6 +3752,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3409,29 +3879,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3462,7 +3909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3475,12 +3934,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3516,31 +3969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3570,55 +4005,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3642,7 +4047,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3671,6 +4118,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3682,15 +4153,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3745,21 +4207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3776,10 +4223,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3788,137 +4235,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3927,9 +4374,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -3948,12 +4392,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4305,8 +4743,8 @@
   <sheetPr/>
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4342,13 +4780,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4359,13 +4797,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4376,13 +4814,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4393,13 +4831,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4410,13 +4848,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4427,13 +4865,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4444,13 +4882,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4461,13 +4899,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4478,13 +4916,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4495,13 +4933,13 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4512,13 +4950,13 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4529,13 +4967,13 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4546,13 +4984,13 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4563,13 +5001,13 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4580,13 +5018,13 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4597,13 +5035,13 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4614,13 +5052,13 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4631,13 +5069,13 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4648,13 +5086,13 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4665,13 +5103,13 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4682,13 +5120,13 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4699,13 +5137,13 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4716,13 +5154,13 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4733,13 +5171,13 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4750,13 +5188,13 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4767,13 +5205,13 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4784,13 +5222,13 @@
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4801,13 +5239,13 @@
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4818,13 +5256,13 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4835,13 +5273,13 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4852,13 +5290,13 @@
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4869,13 +5307,13 @@
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4886,13 +5324,13 @@
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4903,13 +5341,13 @@
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4920,13 +5358,13 @@
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4937,13 +5375,13 @@
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4954,13 +5392,13 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4971,13 +5409,13 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4988,13 +5426,13 @@
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5005,13 +5443,13 @@
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5022,13 +5460,13 @@
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5039,13 +5477,13 @@
       <c r="B43" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5056,13 +5494,13 @@
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5073,13 +5511,13 @@
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5090,13 +5528,13 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5107,13 +5545,13 @@
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5124,13 +5562,13 @@
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5141,13 +5579,13 @@
       <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5158,13 +5596,13 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5175,13 +5613,13 @@
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5192,13 +5630,13 @@
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5209,13 +5647,13 @@
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5226,388 +5664,388 @@
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="D57" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="E57" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="4" t="s">
-        <v>176</v>
+      <c r="A58" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" s="11" t="s">
+      <c r="C58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>178</v>
       </c>
+      <c r="E58" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="4" t="s">
-        <v>179</v>
+      <c r="A59" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" s="11" t="s">
+      <c r="C59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="E59" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="4" t="s">
-        <v>182</v>
+      <c r="A60" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="11" t="s">
+      <c r="C60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="E60" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="4" t="s">
-        <v>185</v>
+      <c r="A61" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="11" t="s">
+      <c r="C61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="E61" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="4" t="s">
-        <v>188</v>
+      <c r="A62" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="11" t="s">
+      <c r="C62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
+      <c r="E62" s="5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="4" t="s">
-        <v>191</v>
+      <c r="A63" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E63" s="11" t="s">
+      <c r="C63" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="E63" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="4" t="s">
-        <v>194</v>
+      <c r="A64" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E64" s="11" t="s">
+      <c r="C64" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>196</v>
       </c>
+      <c r="E64" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="4" t="s">
-        <v>197</v>
+      <c r="A65" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="11" t="s">
+      <c r="C65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="E65" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="4" t="s">
-        <v>200</v>
+      <c r="A66" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" s="11" t="s">
+      <c r="C66" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>202</v>
       </c>
+      <c r="E66" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="4" t="s">
-        <v>203</v>
+      <c r="A67" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="C67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="E67" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="4" t="s">
-        <v>206</v>
+      <c r="A68" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E68" s="11" t="s">
+      <c r="C68" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="E68" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="4" t="s">
-        <v>209</v>
+      <c r="A69" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="11" t="s">
+      <c r="C69" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="E69" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="4" t="s">
-        <v>212</v>
+      <c r="A70" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C70" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="D70" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="E70" s="5" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="4" t="s">
-        <v>216</v>
+      <c r="A71" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" s="11" t="s">
+      <c r="C71" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="E71" s="5" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="4" t="s">
-        <v>219</v>
+      <c r="A72" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E72" s="11" t="s">
+      <c r="C72" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="E72" s="5" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="4" t="s">
-        <v>222</v>
+      <c r="A73" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E73" s="11" t="s">
+      <c r="C73" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>224</v>
       </c>
+      <c r="E73" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="4" t="s">
-        <v>225</v>
+      <c r="A74" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="11" t="s">
+      <c r="C74" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="E74" s="5" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="4" t="s">
-        <v>228</v>
+      <c r="A75" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" s="11" t="s">
+      <c r="C75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>230</v>
       </c>
+      <c r="E75" s="5" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="4" t="s">
-        <v>231</v>
+      <c r="A76" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" s="11" t="s">
+      <c r="C76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>233</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
